--- a/config_7.6/act_ty_phb_config.xlsx
+++ b/config_7.6/act_ty_phb_config.xlsx
@@ -65,16 +65,16 @@
     <t>is_have_point|开关1,0</t>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>prop_grade</t>
   </si>
   <si>
     <t>shop_gold_sum</t>
   </si>
   <si>
-    <t>qlyx_021_xgphb_rank</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
+    <t>yqhp_022_nqdr_rank</t>
+  </si>
+  <si>
+    <t>"act_052_qfhl",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -83,10 +83,10 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_020_dlphb</t>
-  </si>
-  <si>
-    <t>actp_rank_qlyx_021_xgphb_rank</t>
+    <t>act_021_dlphb</t>
+  </si>
+  <si>
+    <t>actp_rank_yqhp_022_nqdr_rank</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -128,25 +128,25 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>西瓜数达到300万</t>
-  </si>
-  <si>
-    <t>西瓜数达到180万</t>
-  </si>
-  <si>
-    <t>西瓜数达到90万</t>
-  </si>
-  <si>
-    <t>西瓜数达到45万</t>
-  </si>
-  <si>
-    <t>西瓜数达到30万</t>
-  </si>
-  <si>
-    <t>西瓜数达到18万</t>
-  </si>
-  <si>
-    <t>西瓜数达到9万</t>
+    <t>牛啤值达到100000</t>
+  </si>
+  <si>
+    <t>牛啤值达到60000</t>
+  </si>
+  <si>
+    <t>牛啤值达到30000</t>
+  </si>
+  <si>
+    <t>牛啤值达到15000</t>
+  </si>
+  <si>
+    <t>牛啤值达到10000</t>
+  </si>
+  <si>
+    <t>牛啤值达到6000</t>
+  </si>
+  <si>
+    <t>牛啤值达到3000</t>
   </si>
 </sst>
 </file>
@@ -155,9 +155,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,23 +174,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -211,6 +218,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -218,9 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,77 +294,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -344,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,15 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,8 +591,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,21 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,148 +643,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -811,14 +811,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1183,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,7 +1267,7 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1276,14 +1276,14 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9">
-        <v>1624924800</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1625500799</v>
+      <c r="H2" s="8">
+        <v>1625529600</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1626105599</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>19</v>
@@ -1301,45 +1301,45 @@
         <v>23</v>
       </c>
       <c r="O2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="9" spans="13:13">
       <c r="M9" s="1" t="s">
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/config_7.6/act_ty_phb_config.xlsx
+++ b/config_7.6/act_ty_phb_config.xlsx
@@ -174,23 +174,73 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,30 +254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,61 +301,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,31 +344,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,151 +494,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,8 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,15 +615,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -620,21 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,136 +655,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1183,7 +1183,7 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1359,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1475,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="4">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>37</v>
@@ -1492,7 +1492,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="4">
-        <v>1800000</v>
+        <v>60000</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>38</v>
@@ -1509,7 +1509,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="4">
-        <v>900000</v>
+        <v>30000</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
@@ -1526,7 +1526,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="4">
-        <v>450000</v>
+        <v>15000</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>40</v>
@@ -1543,7 +1543,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="4">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>41</v>
@@ -1560,7 +1560,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="4">
-        <v>180000</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>42</v>
@@ -1577,7 +1577,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="4">
-        <v>90000</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>43</v>

--- a/config_7.6/act_ty_phb_config.xlsx
+++ b/config_7.6/act_ty_phb_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>condiy_key|权限（非显示权限，此权限为渠道或者平台权限）</t>
   </si>
   <si>
-    <t>type_info</t>
-  </si>
-  <si>
-    <t>is_have_point|开关1,0</t>
+    <t>type_info|无加成除1</t>
+  </si>
+  <si>
+    <t>is_have_point|有加成填1,无则填0</t>
   </si>
   <si>
     <t>prop_grade</t>
@@ -74,7 +74,7 @@
     <t>yqhp_022_nqdr_rank</t>
   </si>
   <si>
-    <t>"act_052_qfhl",</t>
+    <t>"nil",</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -175,6 +175,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,15 +189,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,121 +296,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -344,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,17 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,34 +580,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,8 +604,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +624,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,148 +643,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1183,8 +1183,8 @@
   <sheetPr/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1301,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1358,7 +1358,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
